--- a/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
+++ b/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
@@ -5613,7 +5613,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>49731</v>
+        <v>48767</v>
       </c>
     </row>
   </sheetData>

--- a/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
+++ b/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
   <si>
     <t>Serie</t>
   </si>
@@ -1445,6 +1445,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5616,6 +5619,14 @@
         <v>48767</v>
       </c>
     </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477">
+        <v>52022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
+++ b/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
@@ -5624,7 +5624,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>52022</v>
+        <v>52023</v>
       </c>
     </row>
   </sheetData>

--- a/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
+++ b/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t>Serie</t>
   </si>
@@ -1448,6 +1448,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B477"/>
+  <dimension ref="A1:B478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5627,6 +5630,14 @@
         <v>52023</v>
       </c>
     </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478">
+        <v>53309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
+++ b/1/6/2/Indicadores de coyuntura 1982 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
   <si>
     <t>Serie</t>
   </si>
@@ -1451,6 +1451,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B478"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5638,6 +5641,14 @@
         <v>53309</v>
       </c>
     </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>55030</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
